--- a/biology/Zoologie/José_María_Alfonso_Félix_Gallardo/José_María_Alfonso_Félix_Gallardo.xlsx
+++ b/biology/Zoologie/José_María_Alfonso_Félix_Gallardo/José_María_Alfonso_Félix_Gallardo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mar%C3%ADa_Alfonso_F%C3%A9lix_Gallardo</t>
+          <t>José_María_Alfonso_Félix_Gallardo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José María Alfonso Félix Gallardo est un herpétologiste argentin, né le 1er août 1925 dans la province de Buenos Aires et mort le 12 octobre 1994 à Buenos Aires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mar%C3%ADa_Alfonso_F%C3%A9lix_Gallardo</t>
+          <t>José_María_Alfonso_Félix_Gallardo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhinella gallardoi (Carrizo, 1992)
-Liolaemus gallardoi Cei &amp; Scolaro, 1982[1]
-Urostrophus gallardoi Etheridge &amp; Williams, 1991[1]</t>
+Liolaemus gallardoi Cei &amp; Scolaro, 1982
+Urostrophus gallardoi Etheridge &amp; Williams, 1991</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mar%C3%ADa_Alfonso_F%C3%A9lix_Gallardo</t>
+          <t>José_María_Alfonso_Félix_Gallardo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
